--- a/biology/Neurosciences/Neurone_dopaminergique/Neurone_dopaminergique.xlsx
+++ b/biology/Neurosciences/Neurone_dopaminergique/Neurone_dopaminergique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un neurone dopaminergique est un neurone qui produit de la dopamine.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôle des neurones dopaminergiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les neurones dopaminergiques produisent de la dopamine[1]. La dopamine est un neurotransmetteur, notamment impliqué dans la régulation des mouvements.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les neurones dopaminergiques produisent de la dopamine. La dopamine est un neurotransmetteur, notamment impliqué dans la régulation des mouvements.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liens avec la maladie de Parkinson</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On observe une destruction des neurones dopaminergiques chez les patients atteints de la maladie de Parkinson[2].
-La maladie de Parkinson se caractérise principalement par la mort d’un certain type de neurones, les neurones qui sécrètent de la dopamine, dits « dopaminergiques » et qui sont situés préférentiellement dans une très petite région du cerveau, la substance noire ou « locus niger ». https://institutducerveau-icm.org/fr/parkinson/mecanismes/[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On observe une destruction des neurones dopaminergiques chez les patients atteints de la maladie de Parkinson.
+La maladie de Parkinson se caractérise principalement par la mort d’un certain type de neurones, les neurones qui sécrètent de la dopamine, dits « dopaminergiques » et qui sont situés préférentiellement dans une très petite région du cerveau, la substance noire ou « locus niger ». https://institutducerveau-icm.org/fr/parkinson/mecanismes/
 </t>
         </is>
       </c>
